--- a/tmp/source-translations.xlsx
+++ b/tmp/source-translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrej\Documents\GitHub\the-deepfake-lab-the-glass-room\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D76F5CEC-0F1D-4FD1-A556-88BE60D1FFBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73AD67A-9D9B-456D-B762-62DC7E3C0EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4D2EB8A-8F74-4977-84BE-F2ACEF9A0E89}"/>
   </bookViews>
@@ -63,15 +63,6 @@
     <t>Il diavolo veste Prada | Il colloquio di Andy</t>
   </si>
   <si>
-    <t>Star Wars: Episodio I - La amenaza fantasma</t>
-  </si>
-  <si>
-    <t>Sherlock | La caída de Reichenbach</t>
-  </si>
-  <si>
-    <t>Sherlock | Le cascate di Reichenbach</t>
-  </si>
-  <si>
     <t>Indiana Jones e il tempio maledetto | Lotta sul ponte di corda</t>
   </si>
   <si>
@@ -93,26 +84,35 @@
     <t>Der Teufel trägt Prada | Andys Vorstellungsgespräch</t>
   </si>
   <si>
-    <t>Star Wars: Episodio I - La minaccia fantasma | Padmé incontra Anakin</t>
-  </si>
-  <si>
-    <t>Star Wars, épisode I : La Menace fantôme | Padmé rencontre Anakin</t>
-  </si>
-  <si>
-    <t>Indiana Jones y el templo maldito | Padmé se encuentra con Anakin</t>
-  </si>
-  <si>
     <t>Indiana Jones et le Temple maudit | Padmé rencontre Anakin</t>
   </si>
   <si>
     <t>Sherlock | La Chute du Reichenbach | Affrontement final sur le toit</t>
+  </si>
+  <si>
+    <t>Sherlock | Le cascate di Reichenbach | Resa dei conti sul tetto</t>
+  </si>
+  <si>
+    <t>Indiana Jones y el templo maldito | Pelear en el puente colgante</t>
+  </si>
+  <si>
+    <t>Sherlock | La caída de Reichenbach | Enfrentamiento en la azotea</t>
+  </si>
+  <si>
+    <t>Star Wars: Episodio I – La minaccia fantasma | Padmé incontra Anakin</t>
+  </si>
+  <si>
+    <t>Star Wars: Episodio I – La amenaza fantasma | Padmé se encuentra con Anakin</t>
+  </si>
+  <si>
+    <t>Star Wars, épisode I : La Menace fantôme | Combat sur le pont</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +122,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -149,9 +157,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -466,17 +475,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E4DF38-77D4-41C6-9D0D-6BFA1158FB9C}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -499,72 +508,75 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
